--- a/WH-002Sales-Update.xlsx
+++ b/WH-002Sales-Update.xlsx
@@ -747,7 +747,7 @@
         <v>24</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>

--- a/WH-002Sales-Update.xlsx
+++ b/WH-002Sales-Update.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Timestamp</t>
   </si>
@@ -79,52 +79,25 @@
     <t>ราคาขาย</t>
   </si>
   <si>
-    <t>2024-08-26 16:00:22.804</t>
-  </si>
-  <si>
-    <t>2024-08-26 16:00:39.193</t>
-  </si>
-  <si>
-    <t>2024-08-26 16:01:02.948</t>
-  </si>
-  <si>
-    <t>2024-08-26 16:01:22.259</t>
+    <t>2024-10-06 12:48:53.323</t>
   </si>
   <si>
     <t>WH-002</t>
   </si>
   <si>
-    <t>ลซ4-ช</t>
-  </si>
-  <si>
-    <t>ลซ1/2-ม</t>
-  </si>
-  <si>
-    <t>ปร112-ด</t>
-  </si>
-  <si>
-    <t>รน37</t>
-  </si>
-  <si>
-    <t>เหลี่ยมgi 4*4 x1.5m</t>
-  </si>
-  <si>
-    <t>เหลี่ยมgi 1/2*1/2 x1m</t>
-  </si>
-  <si>
-    <t>ปลายเรียบ 1-1/2 x1.2m (แดง)</t>
-  </si>
-  <si>
-    <t>รางน้ำ 3" x7m</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>คุณอัมพิการ์</t>
-  </si>
-  <si>
-    <t>เมืองเก่า กบินทร์</t>
+    <t>กด4-ฟ</t>
+  </si>
+  <si>
+    <t>กล่องดำ 4*2 x1.2m</t>
+  </si>
+  <si>
+    <t>ลูกค้าช่าง</t>
+  </si>
+  <si>
+    <t>ช่างตั้ม</t>
+  </si>
+  <si>
+    <t>กบินทร์</t>
   </si>
 </sst>
 </file>
@@ -482,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,40 +528,40 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>34</v>
-      </c>
       <c r="I2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J2">
-        <v>675</v>
+        <v>478</v>
       </c>
       <c r="K2">
-        <v>810</v>
+        <v>575</v>
       </c>
       <c r="L2">
-        <v>805</v>
+        <v>570</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -603,199 +576,22 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T2">
         <v>123456789</v>
       </c>
       <c r="U2">
-        <v>8100</v>
+        <v>11400</v>
       </c>
       <c r="V2">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>25</v>
-      </c>
-      <c r="J3">
-        <v>105</v>
-      </c>
-      <c r="K3">
-        <v>126</v>
-      </c>
-      <c r="L3">
-        <v>120</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>25</v>
-      </c>
-      <c r="U3">
-        <v>630</v>
-      </c>
-      <c r="V3">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>294</v>
-      </c>
-      <c r="K4">
-        <v>353</v>
-      </c>
-      <c r="L4">
-        <v>350</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>20</v>
-      </c>
-      <c r="U4">
-        <v>706</v>
-      </c>
-      <c r="V4">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="1">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>1005</v>
-      </c>
-      <c r="K5">
-        <v>1206</v>
-      </c>
-      <c r="L5">
-        <v>1200</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>6030</v>
-      </c>
-      <c r="V5">
-        <v>603</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/WH-002Sales-Update.xlsx
+++ b/WH-002Sales-Update.xlsx
@@ -22,7 +22,7 @@
     <t>จำนวนสินค้า</t>
   </si>
   <si>
-    <t>เลขที่เสนอราคา</t>
+    <t>เลขที่ขายสินค้า</t>
   </si>
   <si>
     <t>รหัส</t>
@@ -79,7 +79,7 @@
     <t>ราคาขาย</t>
   </si>
   <si>
-    <t>2024-10-06 12:48:53.323</t>
+    <t>2024-10-08 15:47:43.252</t>
   </si>
   <si>
     <t>WH-002</t>
@@ -91,13 +91,13 @@
     <t>กล่องดำ 4*2 x1.2m</t>
   </si>
   <si>
-    <t>ลูกค้าช่าง</t>
-  </si>
-  <si>
-    <t>ช่างตั้ม</t>
-  </si>
-  <si>
-    <t>กบินทร์</t>
+    <t>ลูกค้าทั่วไป</t>
+  </si>
+  <si>
+    <t>คุณวารินทร์</t>
+  </si>
+  <si>
+    <t>สระบัว</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>21</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -588,10 +588,10 @@
         <v>123456789</v>
       </c>
       <c r="U2">
-        <v>11400</v>
+        <v>1150</v>
       </c>
       <c r="V2">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
